--- a/R_code/temp/137_DSI.xlsx
+++ b/R_code/temp/137_DSI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\R\R_code\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9C9C42CA-E12A-413A-BC08-799253791699}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73854F9A-E42A-4F42-8216-EF47CD8040CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13330" windowHeight="4660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13330" windowHeight="4660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="137_DSI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -518,6 +525,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,11 +672,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2884,16 +2909,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:O17"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2924,8 +2949,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2956,8 +2990,17 @@
       <c r="J2">
         <v>1.0999999999999901</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2988,8 +3031,17 @@
       <c r="J3">
         <v>9.9999999999994302E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
@@ -3020,8 +3072,17 @@
       <c r="J4">
         <v>2.4000000000000101</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3052,8 +3113,17 @@
       <c r="J5">
         <v>9.4000000000000092</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3084,8 +3154,17 @@
       <c r="J6">
         <v>9.4000000000000092</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3116,8 +3195,17 @@
       <c r="J7">
         <v>9.9999999999994302E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3148,8 +3236,17 @@
       <c r="J8">
         <v>0.90000000000000602</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3180,8 +3277,17 @@
       <c r="J9">
         <v>0.90000000000000602</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3212,8 +3318,17 @@
       <c r="J10">
         <v>0.90000000000000602</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3244,8 +3359,17 @@
       <c r="J11">
         <v>8.4000000000000092</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3276,8 +3400,17 @@
       <c r="J12">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3308,8 +3441,17 @@
       <c r="J13">
         <v>1.9000000000000099</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3340,8 +3482,17 @@
       <c r="J14">
         <v>7.4000000000000101</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3372,8 +3523,17 @@
       <c r="J15">
         <v>6.4000000000000101</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3404,15 +3564,21 @@
       <c r="J16">
         <v>3.9000000000000101</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="1"/>
+      <c r="M16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16">
+      <c r="N16" s="2"/>
+      <c r="O16" s="1">
         <v>7.2619999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3443,16 +3609,22 @@
       <c r="J17">
         <v>3.9000000000000101</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="L17" s="1"/>
+      <c r="M17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17">
+      <c r="N17" s="2"/>
+      <c r="O17" s="1">
         <f>CORREL(H2:H138,I2:I138)</f>
         <v>0.96015871719284995</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3483,8 +3655,17 @@
       <c r="J18">
         <v>5.4000000000000101</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3515,8 +3696,17 @@
       <c r="J19">
         <v>9.5999999999999908</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3548,7 +3738,7 @@
         <v>8.0999999999999908</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3580,7 +3770,7 @@
         <v>4.4000000000000101</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3612,7 +3802,7 @@
         <v>4.9000000000000101</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3644,7 +3834,7 @@
         <v>0.59999999999999398</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3676,7 +3866,7 @@
         <v>4.9000000000000101</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3708,7 +3898,7 @@
         <v>4.9000000000000101</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3740,7 +3930,7 @@
         <v>6.9000000000000101</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3772,7 +3962,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3804,7 +3994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3836,7 +4026,7 @@
         <v>6.9000000000000101</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3868,7 +4058,7 @@
         <v>7.9000000000000101</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3900,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>4</v>
       </c>
